--- a/m7/Lemon_Tree/qianchengdai/util/testcase_data.xlsx
+++ b/m7/Lemon_Tree/qianchengdai/util/testcase_data.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/wxPythonCode/m7/Lemon_Tree/qianchengdai/util/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0013A49B-3DE7-0F49-8DC8-A6583F260241}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{F28F2361-95B8-DE47-AE81-0ACBA53DB2CB}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25440" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>{'phone':'18611848257','password':'nishi458','vcode':'','remember_me':'1','notify_url':''}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,14 +54,46 @@
   </si>
   <si>
     <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的用户名和错误的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入用户名不输入密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +106,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -106,7 +140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -115,6 +149,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,6 +168,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -141,7 +255,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -176,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -228,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -422,63 +536,100 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8ADE4AC-760C-204B-89AB-FD9BA5D46146}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11" style="4"/>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/m7/Lemon_Tree/qianchengdai/util/testcase_data.xlsx
+++ b/m7/Lemon_Tree/qianchengdai/util/testcase_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/wxPythonCode/m7/Lemon_Tree/qianchengdai/util/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B024093-5C17-3C4E-A71F-8D6B1A4D392A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25440" windowHeight="15990"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,80 +25,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>test_right_u_right_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_right_u_error_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_empty_u_have_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'phone':'','password':'nishi458','vcode':'','remember_me':'1','notify_url':''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'phone':'18611848257','password':'nishi459','vcode':'','remember_me':'1','notify_url':''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此账号没有经过授权，请联系管理员!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帐号或密码错误!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的用户名和密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的用户名和错误的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'phone':'18611848257','password':'','vcode':'','remember_me':'1','notify_url':''}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_have_u_empty_p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入用户名不输入密码</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'shu'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只输入密码不输入用户名</t>
+    <rPh sb="0" eb="2">
+      <t>zhi'shu'r</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>{'phone':'18611848257','password':'nishi458','vcode':'','remember_me':'1','notify_url':''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_right_u_right_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_right_u_error_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_empty_u_have_p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'phone':'','password':'nishi458','vcode':'','remember_me':'1','notify_url':''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'phone':'18611848257','password':'nishi459','vcode':'','remember_me':'1','notify_url':''}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此账号没有经过授权，请联系管理员!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帐号或密码错误!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的用户名和密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确的用户名和错误的密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只输入用户名不输入密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="12"/>
@@ -168,74 +196,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -255,7 +215,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -290,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -342,7 +302,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,44 +496,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="96.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -581,16 +541,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -598,16 +558,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -615,16 +575,33 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>6</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
